--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/OREGON_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/OREGON_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1230"/>
+  <dimension ref="A1:D1224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C11">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C31">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C52">
@@ -1309,7 +1309,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C71">
@@ -1444,7 +1444,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C81">
@@ -1618,7 +1618,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C94">
@@ -1644,7 +1644,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C100">
@@ -2018,7 +2018,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C124">
@@ -2109,12 +2109,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C131">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C134">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C135">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C140">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C144">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C146">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C151">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C155">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C156">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C165">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C173">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C180">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C185">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C191">
@@ -3016,7 +3016,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C200">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C201">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C207">
@@ -3159,7 +3159,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C211">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C222">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C225">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C230">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C233">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C235">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C236">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C240">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C243">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C248">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C249">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C255">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C260">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C267">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C270">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C272">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C275">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C287">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C289">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C291">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C293">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C297">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C307">
@@ -4430,7 +4430,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C308">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C314">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C316">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C318">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C321">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C326">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C327">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C329">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C334">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C337">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C339">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C341">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C347">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C350">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C355">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C356">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C361">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C364">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C366">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C376">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C382">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C388">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C389">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C393">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C398">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C409">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C412">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C415">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C417">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C418">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C419">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C422">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C423">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C430">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C433">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C444">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C447">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C448">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C451">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C452">
@@ -6624,7 +6624,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C476">
@@ -6650,7 +6650,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C478">
@@ -7469,7 +7469,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C541">
@@ -7760,7 +7760,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C563">
@@ -7851,7 +7851,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C570">
@@ -7903,7 +7903,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C574">
@@ -7942,7 +7942,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C577">
@@ -7968,7 +7968,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C579">
@@ -8059,7 +8059,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C586">
@@ -8155,7 +8155,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C593">
@@ -8246,7 +8246,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C600">
@@ -8407,7 +8407,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C612">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C614">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C622">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C624">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C625">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C627">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C628">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C629">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C630">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C634">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C641">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C645">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C649">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C651">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C666">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C679">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C699">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C725">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C726">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C740">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C764">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C768">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C809">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C818">
@@ -11103,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C819">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C820">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C821">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C822">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C823">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C824">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C825">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C826">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C827">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C828">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C831">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C833">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C834">
@@ -11485,7 +11485,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C848">
@@ -11771,7 +11771,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C870">
@@ -11784,7 +11784,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C871">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C876">
@@ -11901,7 +11901,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C880">
@@ -11914,7 +11914,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C881">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C885">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C901">
@@ -12187,7 +12187,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C902">
@@ -12226,7 +12226,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C905">
@@ -12304,7 +12304,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C911">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C914">
@@ -12369,7 +12369,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C916">
@@ -12434,7 +12434,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C921">
@@ -12738,7 +12738,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C944">
@@ -12751,7 +12751,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C945">
@@ -12816,7 +12816,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C950">
@@ -12842,7 +12842,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C952">
@@ -12868,7 +12868,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C954">
@@ -13060,7 +13060,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C968">
@@ -13086,7 +13086,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C970">
@@ -13112,7 +13112,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C972">
@@ -13151,7 +13151,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C975">
@@ -13164,7 +13164,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C976">
@@ -13725,7 +13725,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1018">
@@ -13873,7 +13873,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1029">
@@ -13995,7 +13995,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1038">
@@ -14021,7 +14021,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1040">
@@ -14060,7 +14060,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1043">
@@ -14086,7 +14086,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1045">
@@ -14112,7 +14112,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1047">
@@ -14312,7 +14312,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1062">
@@ -14416,7 +14416,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1070">
@@ -14481,7 +14481,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1075">
@@ -14585,7 +14585,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1083">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1095">
@@ -14767,7 +14767,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1097">
@@ -14858,7 +14858,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1104">
@@ -14923,7 +14923,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1109">
@@ -14975,7 +14975,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1113">
@@ -15014,7 +15014,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1116">
@@ -15053,7 +15053,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1119">
@@ -15183,7 +15183,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1129">
@@ -15222,7 +15222,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1132">
@@ -15287,7 +15287,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1137">
@@ -15326,7 +15326,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1140">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1153">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1159">
@@ -15754,7 +15754,7 @@
         <v>82</v>
       </c>
       <c r="D1172">
-        <v>0.009166107757657053</v>
+        <v>0.009166107757657051</v>
       </c>
     </row>
     <row r="1173">
@@ -16025,7 +16025,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1193">
@@ -16116,7 +16116,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1200">
@@ -16168,7 +16168,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1204">
@@ -16207,7 +16207,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1207">
@@ -16311,7 +16311,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1215">
@@ -16324,7 +16324,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1216">
@@ -16337,7 +16337,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1217">
@@ -16363,7 +16363,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1219">
@@ -16436,41 +16436,6 @@
       </c>
       <c r="D1224">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
